--- a/vtiger-crm-fw-a12/src/test/resources/testScriptData.xlsx
+++ b/vtiger-crm-fw-a12/src/test/resources/testScriptData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="A12" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t>Names</t>
   </si>
@@ -180,6 +180,24 @@
   </si>
   <si>
     <t>Ghalot</t>
+  </si>
+  <si>
+    <t>phoneNum</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>9910507498</t>
+  </si>
+  <si>
+    <t>9939111634</t>
+  </si>
+  <si>
+    <t>9548067919</t>
+  </si>
+  <si>
+    <t>9812399614</t>
   </si>
 </sst>
 </file>
@@ -242,12 +260,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -635,68 +657,103 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView zoomScale="130" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>45678909876</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="B11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -707,7 +764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="265" workbookViewId="0">
+    <sheetView zoomScale="102" zoomScaleNormal="265" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
